--- a/Conception Du Projet/Maquette scoring B2C.xlsx
+++ b/Conception Du Projet/Maquette scoring B2C.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Topnet-B2C-Stage-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stage Topnet\Topnet-B2C-Stage-\Conception Du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AE9833-8CBB-41D0-BEB4-A3788F755D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B230315E-21A0-48F6-A453-0EC71E85BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B2C scori" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Matrice du SCORING Clinet</t>
   </si>
@@ -264,6 +254,93 @@
   </si>
   <si>
     <t>(Proposition)</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>categorie_client</t>
+  </si>
+  <si>
+    <t>engagement_contractuel</t>
+  </si>
+  <si>
+    <t>offre</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>poids_offre</t>
+  </si>
+  <si>
+    <t>poids_debit</t>
+  </si>
+  <si>
+    <t>poids_categorie_client</t>
+  </si>
+  <si>
+    <t>poids_engagement_contractuel</t>
+  </si>
+  <si>
+    <t>poids_anciennete</t>
+  </si>
+  <si>
+    <t>poids_nombre_suspension</t>
+  </si>
+  <si>
+    <t>poids_montant_en_cours</t>
+  </si>
+  <si>
+    <t>poids_nombre_reclamations</t>
+  </si>
+  <si>
+    <t>poids_delai_traitement</t>
+  </si>
+  <si>
+    <t>poids_delai_moyen_paiement</t>
+  </si>
+  <si>
+    <t>poids_incident_de_paiement</t>
+  </si>
+  <si>
+    <t>poids_contentieux</t>
+  </si>
+  <si>
+    <t>valeur_commerciale_weight</t>
+  </si>
+  <si>
+    <t>engagement_topnet_weight</t>
+  </si>
+  <si>
+    <t>engagement_client_weight</t>
+  </si>
+  <si>
+    <t>comportement_client_weight</t>
+  </si>
+  <si>
+    <t>nombre_reclamations</t>
+  </si>
+  <si>
+    <t>delai_traitement</t>
+  </si>
+  <si>
+    <t>mariem</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>chedi</t>
   </si>
 </sst>
 </file>
@@ -437,7 +514,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -446,23 +526,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,48 +824,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -823,14 +900,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="29">
         <v>0.2</v>
       </c>
       <c r="D3" s="2"/>
@@ -854,7 +931,7 @@
       <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="29">
         <f>SUM(I3:I6)*C3</f>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -863,9 +940,9 @@
         <v>classe 4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
         <v>15</v>
@@ -883,15 +960,15 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="29"/>
       <c r="Q4" s="6"/>
       <c r="S4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="C5" s="28"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
         <v>18</v>
@@ -909,7 +986,7 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
-      <c r="N5" s="28"/>
+      <c r="N5" s="29"/>
       <c r="Q5" s="6" t="s">
         <v>20</v>
       </c>
@@ -917,10 +994,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2"/>
       <c r="E6" s="9" t="s">
         <v>22</v>
@@ -938,20 +1015,20 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
-      <c r="N6" s="29"/>
+      <c r="N6" s="32"/>
       <c r="Q6" s="6"/>
       <c r="S6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>0.2</v>
       </c>
       <c r="D7" s="2"/>
@@ -971,7 +1048,7 @@
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
-      <c r="N7" s="30">
+      <c r="N7" s="28">
         <f>SUM(I7:I9)*C7</f>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -980,9 +1057,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="C8" s="28"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1000,13 +1077,13 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="17"/>
-      <c r="N8" s="28"/>
+      <c r="N8" s="29"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
         <v>22</v>
@@ -1024,16 +1101,16 @@
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>0.1</v>
       </c>
       <c r="D10" s="2"/>
@@ -1053,14 +1130,14 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
-      <c r="N10" s="30">
+      <c r="N10" s="28">
         <f>SUM(I10:I11)*C10</f>
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="C11" s="28"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>15</v>
@@ -1078,16 +1155,16 @@
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="17"/>
-      <c r="N11" s="28"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>0.5</v>
       </c>
       <c r="D12" s="2"/>
@@ -1107,14 +1184,14 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
-      <c r="N12" s="30">
+      <c r="N12" s="28">
         <f>SUM(I12:I14)*C12</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="C13" s="28"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
         <v>15</v>
@@ -1132,11 +1209,11 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="17"/>
-      <c r="N13" s="28"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="C14" s="28"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
         <v>18</v>
@@ -1154,9 +1231,9 @@
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="17"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1171,15 +1248,15 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" s="6"/>
       <c r="C22"/>
@@ -1188,7 +1265,7 @@
       <c r="H22" s="6"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23" s="6"/>
       <c r="C23" t="s">
@@ -1204,11 +1281,11 @@
       <c r="K23"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="25"/>
       <c r="C24"/>
       <c r="F24" s="6" t="s">
         <v>43</v>
@@ -1220,7 +1297,7 @@
       <c r="K24"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25" s="6"/>
       <c r="C25"/>
@@ -1230,7 +1307,7 @@
       <c r="K25"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26" s="6"/>
       <c r="C26" t="s">
@@ -1246,7 +1323,7 @@
       <c r="K26"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" s="6"/>
       <c r="C27"/>
@@ -1260,7 +1337,7 @@
       <c r="K27"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28" s="6"/>
       <c r="C28" t="s">
@@ -1277,7 +1354,7 @@
       <c r="K28"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="6"/>
       <c r="C29"/>
@@ -1292,7 +1369,7 @@
       <c r="K29"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="6"/>
       <c r="C30" s="22" t="s">
@@ -1313,7 +1390,7 @@
       <c r="K30"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="C31" s="22"/>
@@ -1329,7 +1406,7 @@
       <c r="K31"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32" s="6"/>
       <c r="C32" s="22"/>
@@ -1345,7 +1422,7 @@
       <c r="K32"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33" s="6"/>
       <c r="C33" s="22"/>
@@ -1361,7 +1438,7 @@
       <c r="K33"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34" s="6"/>
       <c r="C34" s="22"/>
@@ -1377,7 +1454,7 @@
       <c r="K34"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35" s="6"/>
       <c r="C35" s="22"/>
@@ -1393,7 +1470,7 @@
       <c r="K35"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36" s="6"/>
       <c r="C36" s="22"/>
@@ -1409,7 +1486,7 @@
       <c r="K36"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37" s="6"/>
       <c r="C37" s="22"/>
@@ -1425,11 +1502,11 @@
       <c r="K37"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="25"/>
       <c r="C38"/>
       <c r="F38" s="6"/>
       <c r="G38"/>
@@ -1437,7 +1514,7 @@
       <c r="K38"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="6"/>
       <c r="C39" t="s">
@@ -1453,7 +1530,7 @@
       <c r="K39"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" s="6"/>
       <c r="C40"/>
@@ -1467,7 +1544,7 @@
       <c r="K40"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41" s="6"/>
       <c r="C41"/>
@@ -1481,7 +1558,7 @@
       <c r="K41"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" s="6"/>
       <c r="C42"/>
@@ -1490,7 +1567,7 @@
       <c r="K42"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43" s="6"/>
       <c r="C43" t="s">
@@ -1507,7 +1584,7 @@
       <c r="K43"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44" s="6"/>
       <c r="C44"/>
@@ -1522,7 +1599,7 @@
       <c r="K44"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45" s="6"/>
       <c r="C45"/>
@@ -1532,7 +1609,7 @@
       <c r="K45"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46" s="6"/>
       <c r="C46"/>
@@ -1542,7 +1619,7 @@
       <c r="K46"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47" s="6"/>
       <c r="C47" t="s">
@@ -1559,7 +1636,7 @@
       <c r="K47"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48" s="6"/>
       <c r="C48"/>
@@ -1574,7 +1651,7 @@
       <c r="K48"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49" s="6"/>
       <c r="C49"/>
@@ -1589,7 +1666,7 @@
       <c r="K49"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="6"/>
       <c r="C50"/>
@@ -1599,11 +1676,11 @@
       <c r="K50"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="32"/>
+      <c r="B51" s="25"/>
       <c r="C51"/>
       <c r="F51" s="6"/>
       <c r="G51"/>
@@ -1611,7 +1688,7 @@
       <c r="K51"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52" s="6"/>
       <c r="C52" t="s">
@@ -1628,7 +1705,7 @@
       <c r="K52"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53" s="6"/>
       <c r="C53"/>
@@ -1643,7 +1720,7 @@
       <c r="K53"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54" s="6"/>
       <c r="C54"/>
@@ -1658,7 +1735,7 @@
       <c r="K54"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55" s="6"/>
       <c r="C55"/>
@@ -1668,7 +1745,7 @@
       <c r="K55"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56" s="6"/>
       <c r="C56"/>
@@ -1683,7 +1760,7 @@
       <c r="K56"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57" s="6"/>
       <c r="C57"/>
@@ -1698,11 +1775,11 @@
       <c r="K57"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="32"/>
+      <c r="B58" s="25"/>
       <c r="C58"/>
       <c r="F58" s="6"/>
       <c r="G58"/>
@@ -1710,7 +1787,7 @@
       <c r="K58"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59" s="6"/>
       <c r="C59"/>
@@ -1720,7 +1797,7 @@
       <c r="K59"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60" s="6"/>
       <c r="C60"/>
@@ -1730,7 +1807,7 @@
       <c r="K60"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61" s="6"/>
       <c r="C61" s="12" t="s">
@@ -1744,7 +1821,7 @@
       <c r="K61"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62" s="6"/>
       <c r="C62" t="s">
@@ -1758,7 +1835,7 @@
       <c r="K62"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63" s="6"/>
       <c r="C63"/>
@@ -1768,7 +1845,7 @@
       <c r="K63"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64" s="6"/>
       <c r="C64"/>
@@ -1778,7 +1855,7 @@
       <c r="K64"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65" s="6"/>
       <c r="C65"/>
@@ -1788,7 +1865,7 @@
       <c r="K65"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="6"/>
       <c r="C66" t="s">
@@ -1805,7 +1882,7 @@
       <c r="K66"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E67" s="6" t="s">
         <v>71</v>
       </c>
@@ -1813,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>39</v>
       </c>
@@ -1824,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E72" s="6" t="s">
         <v>73</v>
       </c>
@@ -1834,16 +1911,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="N12:N14"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="C3:C6"/>
@@ -1851,8 +1918,5093 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="N7:N9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1C2982-4C8C-40F9-8269-B8A141D4F35D}">
+  <dimension ref="A1:W100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:W100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="N2">
+        <v>50</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>30</v>
+      </c>
+      <c r="Q2">
+        <v>50</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>50</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>30</v>
+      </c>
+      <c r="Q4">
+        <v>50</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>50</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>50</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>50</v>
+      </c>
+      <c r="R7">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>50</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>50</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10">
+        <v>50</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>50</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>50</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12">
+        <v>30</v>
+      </c>
+      <c r="Q12">
+        <v>50</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+      <c r="U12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>50</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>30</v>
+      </c>
+      <c r="Q14">
+        <v>50</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>50</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>30</v>
+      </c>
+      <c r="Q15">
+        <v>50</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
+      </c>
+      <c r="U15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>50</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <v>50</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
+      <c r="U16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>50</v>
+      </c>
+      <c r="R17">
+        <v>20</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <v>50</v>
+      </c>
+      <c r="R18">
+        <v>20</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>50</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>50</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>50</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>50</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>30</v>
+      </c>
+      <c r="Q22">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>50</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>50</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>50</v>
+      </c>
+      <c r="O24">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>30</v>
+      </c>
+      <c r="Q24">
+        <v>50</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="U24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>30</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>50</v>
+      </c>
+      <c r="N25">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <v>30</v>
+      </c>
+      <c r="Q25">
+        <v>50</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <v>20</v>
+      </c>
+      <c r="S26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <v>20</v>
+      </c>
+      <c r="U26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>50</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
+      <c r="Q27">
+        <v>50</v>
+      </c>
+      <c r="R27">
+        <v>20</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <v>20</v>
+      </c>
+      <c r="U27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>30</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>30</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>20</v>
+      </c>
+      <c r="U28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29">
+        <v>50</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>20</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+      <c r="U29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>20</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>50</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>20</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>50</v>
+      </c>
+      <c r="R31">
+        <v>20</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>20</v>
+      </c>
+      <c r="U31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+      <c r="R32">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>30</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>50</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="N33">
+        <v>50</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>50</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>30</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>50</v>
+      </c>
+      <c r="N34">
+        <v>50</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>30</v>
+      </c>
+      <c r="Q34">
+        <v>50</v>
+      </c>
+      <c r="R34">
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35">
+        <v>50</v>
+      </c>
+      <c r="O35">
+        <v>20</v>
+      </c>
+      <c r="P35">
+        <v>30</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+      <c r="R35">
+        <v>20</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36">
+        <v>50</v>
+      </c>
+      <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <v>30</v>
+      </c>
+      <c r="Q36">
+        <v>50</v>
+      </c>
+      <c r="R36">
+        <v>20</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>50</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37">
+        <v>50</v>
+      </c>
+      <c r="O37">
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <v>30</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>20</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>20</v>
+      </c>
+      <c r="U37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="K38">
+        <v>50</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>50</v>
+      </c>
+      <c r="N38">
+        <v>50</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>30</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+      <c r="R38">
+        <v>20</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>20</v>
+      </c>
+      <c r="U38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <v>50</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>50</v>
+      </c>
+      <c r="N39">
+        <v>50</v>
+      </c>
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>30</v>
+      </c>
+      <c r="Q39">
+        <v>50</v>
+      </c>
+      <c r="R39">
+        <v>20</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>20</v>
+      </c>
+      <c r="U39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>20</v>
+      </c>
+      <c r="K40">
+        <v>50</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>50</v>
+      </c>
+      <c r="N40">
+        <v>50</v>
+      </c>
+      <c r="O40">
+        <v>20</v>
+      </c>
+      <c r="P40">
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <v>50</v>
+      </c>
+      <c r="R40">
+        <v>20</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>50</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41">
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <v>20</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>50</v>
+      </c>
+      <c r="R41">
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <v>20</v>
+      </c>
+      <c r="U41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>20</v>
+      </c>
+      <c r="P42">
+        <v>30</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>10</v>
+      </c>
+      <c r="T42">
+        <v>20</v>
+      </c>
+      <c r="U42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+      <c r="O43">
+        <v>20</v>
+      </c>
+      <c r="P43">
+        <v>30</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+      <c r="R43">
+        <v>20</v>
+      </c>
+      <c r="S43">
+        <v>10</v>
+      </c>
+      <c r="T43">
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>20</v>
+      </c>
+      <c r="P44">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="R44">
+        <v>20</v>
+      </c>
+      <c r="S44">
+        <v>10</v>
+      </c>
+      <c r="T44">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>50</v>
+      </c>
+      <c r="N45">
+        <v>50</v>
+      </c>
+      <c r="O45">
+        <v>20</v>
+      </c>
+      <c r="P45">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <v>50</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <v>10</v>
+      </c>
+      <c r="T45">
+        <v>20</v>
+      </c>
+      <c r="U45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <v>50</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <v>30</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+      <c r="R46">
+        <v>20</v>
+      </c>
+      <c r="S46">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>20</v>
+      </c>
+      <c r="U46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47">
+        <v>20</v>
+      </c>
+      <c r="P47">
+        <v>30</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>20</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <v>20</v>
+      </c>
+      <c r="U47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>50</v>
+      </c>
+      <c r="N48">
+        <v>50</v>
+      </c>
+      <c r="O48">
+        <v>20</v>
+      </c>
+      <c r="P48">
+        <v>30</v>
+      </c>
+      <c r="Q48">
+        <v>50</v>
+      </c>
+      <c r="R48">
+        <v>20</v>
+      </c>
+      <c r="S48">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>20</v>
+      </c>
+      <c r="U48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <v>50</v>
+      </c>
+      <c r="O49">
+        <v>20</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <v>50</v>
+      </c>
+      <c r="R49">
+        <v>20</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>20</v>
+      </c>
+      <c r="U49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>50</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>50</v>
+      </c>
+      <c r="N50">
+        <v>50</v>
+      </c>
+      <c r="O50">
+        <v>20</v>
+      </c>
+      <c r="P50">
+        <v>30</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>20</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>20</v>
+      </c>
+      <c r="U50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>30</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>50</v>
+      </c>
+      <c r="N51">
+        <v>50</v>
+      </c>
+      <c r="O51">
+        <v>20</v>
+      </c>
+      <c r="P51">
+        <v>30</v>
+      </c>
+      <c r="Q51">
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <v>20</v>
+      </c>
+      <c r="S51">
+        <v>10</v>
+      </c>
+      <c r="T51">
+        <v>20</v>
+      </c>
+      <c r="U51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>30</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>30</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>20</v>
+      </c>
+      <c r="P52">
+        <v>30</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <v>10</v>
+      </c>
+      <c r="T52">
+        <v>20</v>
+      </c>
+      <c r="U52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>50</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>50</v>
+      </c>
+      <c r="N53">
+        <v>50</v>
+      </c>
+      <c r="O53">
+        <v>20</v>
+      </c>
+      <c r="P53">
+        <v>30</v>
+      </c>
+      <c r="Q53">
+        <v>50</v>
+      </c>
+      <c r="R53">
+        <v>20</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>20</v>
+      </c>
+      <c r="U53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>50</v>
+      </c>
+      <c r="L54">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <v>50</v>
+      </c>
+      <c r="O54">
+        <v>20</v>
+      </c>
+      <c r="P54">
+        <v>30</v>
+      </c>
+      <c r="Q54">
+        <v>50</v>
+      </c>
+      <c r="R54">
+        <v>20</v>
+      </c>
+      <c r="S54">
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <v>20</v>
+      </c>
+      <c r="U54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>30</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>50</v>
+      </c>
+      <c r="N55">
+        <v>50</v>
+      </c>
+      <c r="O55">
+        <v>20</v>
+      </c>
+      <c r="P55">
+        <v>30</v>
+      </c>
+      <c r="Q55">
+        <v>50</v>
+      </c>
+      <c r="R55">
+        <v>20</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>20</v>
+      </c>
+      <c r="U55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <v>30</v>
+      </c>
+      <c r="M56">
+        <v>50</v>
+      </c>
+      <c r="N56">
+        <v>50</v>
+      </c>
+      <c r="O56">
+        <v>20</v>
+      </c>
+      <c r="P56">
+        <v>30</v>
+      </c>
+      <c r="Q56">
+        <v>50</v>
+      </c>
+      <c r="R56">
+        <v>20</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>20</v>
+      </c>
+      <c r="U56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
+      </c>
+      <c r="I57">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>50</v>
+      </c>
+      <c r="N57">
+        <v>50</v>
+      </c>
+      <c r="O57">
+        <v>20</v>
+      </c>
+      <c r="P57">
+        <v>30</v>
+      </c>
+      <c r="Q57">
+        <v>50</v>
+      </c>
+      <c r="R57">
+        <v>20</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>20</v>
+      </c>
+      <c r="U57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>30</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <v>30</v>
+      </c>
+      <c r="M58">
+        <v>50</v>
+      </c>
+      <c r="N58">
+        <v>50</v>
+      </c>
+      <c r="O58">
+        <v>20</v>
+      </c>
+      <c r="P58">
+        <v>30</v>
+      </c>
+      <c r="Q58">
+        <v>50</v>
+      </c>
+      <c r="R58">
+        <v>20</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>20</v>
+      </c>
+      <c r="U58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>30</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>50</v>
+      </c>
+      <c r="N59">
+        <v>50</v>
+      </c>
+      <c r="O59">
+        <v>20</v>
+      </c>
+      <c r="P59">
+        <v>30</v>
+      </c>
+      <c r="Q59">
+        <v>50</v>
+      </c>
+      <c r="R59">
+        <v>20</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>20</v>
+      </c>
+      <c r="U59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>20</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>30</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>50</v>
+      </c>
+      <c r="L60">
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>50</v>
+      </c>
+      <c r="N60">
+        <v>50</v>
+      </c>
+      <c r="O60">
+        <v>20</v>
+      </c>
+      <c r="P60">
+        <v>30</v>
+      </c>
+      <c r="Q60">
+        <v>50</v>
+      </c>
+      <c r="R60">
+        <v>20</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>20</v>
+      </c>
+      <c r="U60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>30</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>50</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
+      </c>
+      <c r="M61">
+        <v>50</v>
+      </c>
+      <c r="N61">
+        <v>50</v>
+      </c>
+      <c r="O61">
+        <v>20</v>
+      </c>
+      <c r="P61">
+        <v>30</v>
+      </c>
+      <c r="Q61">
+        <v>50</v>
+      </c>
+      <c r="R61">
+        <v>20</v>
+      </c>
+      <c r="S61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>20</v>
+      </c>
+      <c r="U61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>30</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>50</v>
+      </c>
+      <c r="L62">
+        <v>30</v>
+      </c>
+      <c r="M62">
+        <v>50</v>
+      </c>
+      <c r="N62">
+        <v>50</v>
+      </c>
+      <c r="O62">
+        <v>20</v>
+      </c>
+      <c r="P62">
+        <v>30</v>
+      </c>
+      <c r="Q62">
+        <v>50</v>
+      </c>
+      <c r="R62">
+        <v>20</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>20</v>
+      </c>
+      <c r="U62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>30</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>50</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>50</v>
+      </c>
+      <c r="N63">
+        <v>50</v>
+      </c>
+      <c r="O63">
+        <v>20</v>
+      </c>
+      <c r="P63">
+        <v>30</v>
+      </c>
+      <c r="Q63">
+        <v>50</v>
+      </c>
+      <c r="R63">
+        <v>20</v>
+      </c>
+      <c r="S63">
+        <v>10</v>
+      </c>
+      <c r="T63">
+        <v>20</v>
+      </c>
+      <c r="U63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+      <c r="J64">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
+      <c r="L64">
+        <v>30</v>
+      </c>
+      <c r="M64">
+        <v>50</v>
+      </c>
+      <c r="N64">
+        <v>50</v>
+      </c>
+      <c r="O64">
+        <v>20</v>
+      </c>
+      <c r="P64">
+        <v>30</v>
+      </c>
+      <c r="Q64">
+        <v>50</v>
+      </c>
+      <c r="R64">
+        <v>20</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>20</v>
+      </c>
+      <c r="U64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>20</v>
+      </c>
+      <c r="K65">
+        <v>50</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65">
+        <v>50</v>
+      </c>
+      <c r="N65">
+        <v>50</v>
+      </c>
+      <c r="O65">
+        <v>20</v>
+      </c>
+      <c r="P65">
+        <v>30</v>
+      </c>
+      <c r="Q65">
+        <v>50</v>
+      </c>
+      <c r="R65">
+        <v>20</v>
+      </c>
+      <c r="S65">
+        <v>10</v>
+      </c>
+      <c r="T65">
+        <v>20</v>
+      </c>
+      <c r="U65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>30</v>
+      </c>
+      <c r="J66">
+        <v>20</v>
+      </c>
+      <c r="K66">
+        <v>50</v>
+      </c>
+      <c r="L66">
+        <v>30</v>
+      </c>
+      <c r="M66">
+        <v>50</v>
+      </c>
+      <c r="N66">
+        <v>50</v>
+      </c>
+      <c r="O66">
+        <v>20</v>
+      </c>
+      <c r="P66">
+        <v>30</v>
+      </c>
+      <c r="Q66">
+        <v>50</v>
+      </c>
+      <c r="R66">
+        <v>20</v>
+      </c>
+      <c r="S66">
+        <v>10</v>
+      </c>
+      <c r="T66">
+        <v>20</v>
+      </c>
+      <c r="U66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+      <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67">
+        <v>50</v>
+      </c>
+      <c r="L67">
+        <v>30</v>
+      </c>
+      <c r="M67">
+        <v>50</v>
+      </c>
+      <c r="N67">
+        <v>50</v>
+      </c>
+      <c r="O67">
+        <v>20</v>
+      </c>
+      <c r="P67">
+        <v>30</v>
+      </c>
+      <c r="Q67">
+        <v>50</v>
+      </c>
+      <c r="R67">
+        <v>20</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67">
+        <v>20</v>
+      </c>
+      <c r="U67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="I68">
+        <v>30</v>
+      </c>
+      <c r="J68">
+        <v>20</v>
+      </c>
+      <c r="K68">
+        <v>50</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>50</v>
+      </c>
+      <c r="N68">
+        <v>50</v>
+      </c>
+      <c r="O68">
+        <v>20</v>
+      </c>
+      <c r="P68">
+        <v>30</v>
+      </c>
+      <c r="Q68">
+        <v>50</v>
+      </c>
+      <c r="R68">
+        <v>20</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>20</v>
+      </c>
+      <c r="U68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>30</v>
+      </c>
+      <c r="J69">
+        <v>20</v>
+      </c>
+      <c r="K69">
+        <v>50</v>
+      </c>
+      <c r="L69">
+        <v>30</v>
+      </c>
+      <c r="M69">
+        <v>50</v>
+      </c>
+      <c r="N69">
+        <v>50</v>
+      </c>
+      <c r="O69">
+        <v>20</v>
+      </c>
+      <c r="P69">
+        <v>30</v>
+      </c>
+      <c r="Q69">
+        <v>50</v>
+      </c>
+      <c r="R69">
+        <v>20</v>
+      </c>
+      <c r="S69">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <v>20</v>
+      </c>
+      <c r="U69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>30</v>
+      </c>
+      <c r="G70">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>20</v>
+      </c>
+      <c r="K70">
+        <v>50</v>
+      </c>
+      <c r="L70">
+        <v>30</v>
+      </c>
+      <c r="M70">
+        <v>50</v>
+      </c>
+      <c r="N70">
+        <v>50</v>
+      </c>
+      <c r="O70">
+        <v>20</v>
+      </c>
+      <c r="P70">
+        <v>30</v>
+      </c>
+      <c r="Q70">
+        <v>50</v>
+      </c>
+      <c r="R70">
+        <v>20</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>20</v>
+      </c>
+      <c r="U70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>30</v>
+      </c>
+      <c r="J71">
+        <v>20</v>
+      </c>
+      <c r="K71">
+        <v>50</v>
+      </c>
+      <c r="L71">
+        <v>30</v>
+      </c>
+      <c r="M71">
+        <v>50</v>
+      </c>
+      <c r="N71">
+        <v>50</v>
+      </c>
+      <c r="O71">
+        <v>20</v>
+      </c>
+      <c r="P71">
+        <v>30</v>
+      </c>
+      <c r="Q71">
+        <v>50</v>
+      </c>
+      <c r="R71">
+        <v>20</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>20</v>
+      </c>
+      <c r="U71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>30</v>
+      </c>
+      <c r="J72">
+        <v>20</v>
+      </c>
+      <c r="K72">
+        <v>50</v>
+      </c>
+      <c r="L72">
+        <v>30</v>
+      </c>
+      <c r="M72">
+        <v>50</v>
+      </c>
+      <c r="N72">
+        <v>50</v>
+      </c>
+      <c r="O72">
+        <v>20</v>
+      </c>
+      <c r="P72">
+        <v>30</v>
+      </c>
+      <c r="Q72">
+        <v>50</v>
+      </c>
+      <c r="R72">
+        <v>20</v>
+      </c>
+      <c r="S72">
+        <v>10</v>
+      </c>
+      <c r="T72">
+        <v>20</v>
+      </c>
+      <c r="U72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73">
+        <v>30</v>
+      </c>
+      <c r="J73">
+        <v>20</v>
+      </c>
+      <c r="K73">
+        <v>50</v>
+      </c>
+      <c r="L73">
+        <v>30</v>
+      </c>
+      <c r="M73">
+        <v>50</v>
+      </c>
+      <c r="N73">
+        <v>50</v>
+      </c>
+      <c r="O73">
+        <v>20</v>
+      </c>
+      <c r="P73">
+        <v>30</v>
+      </c>
+      <c r="Q73">
+        <v>50</v>
+      </c>
+      <c r="R73">
+        <v>20</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>20</v>
+      </c>
+      <c r="U73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>20</v>
+      </c>
+      <c r="K74">
+        <v>50</v>
+      </c>
+      <c r="L74">
+        <v>30</v>
+      </c>
+      <c r="M74">
+        <v>50</v>
+      </c>
+      <c r="N74">
+        <v>50</v>
+      </c>
+      <c r="O74">
+        <v>20</v>
+      </c>
+      <c r="P74">
+        <v>30</v>
+      </c>
+      <c r="Q74">
+        <v>50</v>
+      </c>
+      <c r="R74">
+        <v>20</v>
+      </c>
+      <c r="S74">
+        <v>10</v>
+      </c>
+      <c r="T74">
+        <v>20</v>
+      </c>
+      <c r="U74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>30</v>
+      </c>
+      <c r="J75">
+        <v>20</v>
+      </c>
+      <c r="K75">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>50</v>
+      </c>
+      <c r="N75">
+        <v>50</v>
+      </c>
+      <c r="O75">
+        <v>20</v>
+      </c>
+      <c r="P75">
+        <v>30</v>
+      </c>
+      <c r="Q75">
+        <v>50</v>
+      </c>
+      <c r="R75">
+        <v>20</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>30</v>
+      </c>
+      <c r="J76">
+        <v>20</v>
+      </c>
+      <c r="K76">
+        <v>50</v>
+      </c>
+      <c r="L76">
+        <v>30</v>
+      </c>
+      <c r="M76">
+        <v>50</v>
+      </c>
+      <c r="N76">
+        <v>50</v>
+      </c>
+      <c r="O76">
+        <v>20</v>
+      </c>
+      <c r="P76">
+        <v>30</v>
+      </c>
+      <c r="Q76">
+        <v>50</v>
+      </c>
+      <c r="R76">
+        <v>20</v>
+      </c>
+      <c r="S76">
+        <v>10</v>
+      </c>
+      <c r="T76">
+        <v>20</v>
+      </c>
+      <c r="U76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
+        <v>30</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>30</v>
+      </c>
+      <c r="M77">
+        <v>50</v>
+      </c>
+      <c r="N77">
+        <v>50</v>
+      </c>
+      <c r="O77">
+        <v>20</v>
+      </c>
+      <c r="P77">
+        <v>30</v>
+      </c>
+      <c r="Q77">
+        <v>50</v>
+      </c>
+      <c r="R77">
+        <v>20</v>
+      </c>
+      <c r="S77">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <v>20</v>
+      </c>
+      <c r="U77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>20</v>
+      </c>
+      <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>30</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>50</v>
+      </c>
+      <c r="L78">
+        <v>30</v>
+      </c>
+      <c r="M78">
+        <v>50</v>
+      </c>
+      <c r="N78">
+        <v>50</v>
+      </c>
+      <c r="O78">
+        <v>20</v>
+      </c>
+      <c r="P78">
+        <v>30</v>
+      </c>
+      <c r="Q78">
+        <v>50</v>
+      </c>
+      <c r="R78">
+        <v>20</v>
+      </c>
+      <c r="S78">
+        <v>10</v>
+      </c>
+      <c r="T78">
+        <v>20</v>
+      </c>
+      <c r="U78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>20</v>
+      </c>
+      <c r="I79">
+        <v>30</v>
+      </c>
+      <c r="J79">
+        <v>20</v>
+      </c>
+      <c r="K79">
+        <v>50</v>
+      </c>
+      <c r="L79">
+        <v>30</v>
+      </c>
+      <c r="M79">
+        <v>50</v>
+      </c>
+      <c r="N79">
+        <v>50</v>
+      </c>
+      <c r="O79">
+        <v>20</v>
+      </c>
+      <c r="P79">
+        <v>30</v>
+      </c>
+      <c r="Q79">
+        <v>50</v>
+      </c>
+      <c r="R79">
+        <v>20</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <v>20</v>
+      </c>
+      <c r="U79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>30</v>
+      </c>
+      <c r="J80">
+        <v>20</v>
+      </c>
+      <c r="K80">
+        <v>50</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>50</v>
+      </c>
+      <c r="N80">
+        <v>50</v>
+      </c>
+      <c r="O80">
+        <v>20</v>
+      </c>
+      <c r="P80">
+        <v>30</v>
+      </c>
+      <c r="Q80">
+        <v>50</v>
+      </c>
+      <c r="R80">
+        <v>20</v>
+      </c>
+      <c r="S80">
+        <v>10</v>
+      </c>
+      <c r="T80">
+        <v>20</v>
+      </c>
+      <c r="U80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>20</v>
+      </c>
+      <c r="I81">
+        <v>30</v>
+      </c>
+      <c r="J81">
+        <v>20</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>30</v>
+      </c>
+      <c r="M81">
+        <v>50</v>
+      </c>
+      <c r="N81">
+        <v>50</v>
+      </c>
+      <c r="O81">
+        <v>20</v>
+      </c>
+      <c r="P81">
+        <v>30</v>
+      </c>
+      <c r="Q81">
+        <v>50</v>
+      </c>
+      <c r="R81">
+        <v>20</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>20</v>
+      </c>
+      <c r="U81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>30</v>
+      </c>
+      <c r="J82">
+        <v>20</v>
+      </c>
+      <c r="K82">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>30</v>
+      </c>
+      <c r="M82">
+        <v>50</v>
+      </c>
+      <c r="N82">
+        <v>50</v>
+      </c>
+      <c r="O82">
+        <v>20</v>
+      </c>
+      <c r="P82">
+        <v>30</v>
+      </c>
+      <c r="Q82">
+        <v>50</v>
+      </c>
+      <c r="R82">
+        <v>20</v>
+      </c>
+      <c r="S82">
+        <v>10</v>
+      </c>
+      <c r="T82">
+        <v>20</v>
+      </c>
+      <c r="U82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>30</v>
+      </c>
+      <c r="G83">
+        <v>20</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>20</v>
+      </c>
+      <c r="K83">
+        <v>50</v>
+      </c>
+      <c r="L83">
+        <v>30</v>
+      </c>
+      <c r="M83">
+        <v>50</v>
+      </c>
+      <c r="N83">
+        <v>50</v>
+      </c>
+      <c r="O83">
+        <v>20</v>
+      </c>
+      <c r="P83">
+        <v>30</v>
+      </c>
+      <c r="Q83">
+        <v>50</v>
+      </c>
+      <c r="R83">
+        <v>20</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>20</v>
+      </c>
+      <c r="U83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>30</v>
+      </c>
+      <c r="G84">
+        <v>20</v>
+      </c>
+      <c r="H84">
+        <v>20</v>
+      </c>
+      <c r="I84">
+        <v>30</v>
+      </c>
+      <c r="J84">
+        <v>20</v>
+      </c>
+      <c r="K84">
+        <v>50</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>50</v>
+      </c>
+      <c r="N84">
+        <v>50</v>
+      </c>
+      <c r="O84">
+        <v>20</v>
+      </c>
+      <c r="P84">
+        <v>30</v>
+      </c>
+      <c r="Q84">
+        <v>50</v>
+      </c>
+      <c r="R84">
+        <v>20</v>
+      </c>
+      <c r="S84">
+        <v>10</v>
+      </c>
+      <c r="T84">
+        <v>20</v>
+      </c>
+      <c r="U84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>30</v>
+      </c>
+      <c r="J85">
+        <v>20</v>
+      </c>
+      <c r="K85">
+        <v>50</v>
+      </c>
+      <c r="L85">
+        <v>30</v>
+      </c>
+      <c r="M85">
+        <v>50</v>
+      </c>
+      <c r="N85">
+        <v>50</v>
+      </c>
+      <c r="O85">
+        <v>20</v>
+      </c>
+      <c r="P85">
+        <v>30</v>
+      </c>
+      <c r="Q85">
+        <v>50</v>
+      </c>
+      <c r="R85">
+        <v>20</v>
+      </c>
+      <c r="S85">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <v>20</v>
+      </c>
+      <c r="U85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>30</v>
+      </c>
+      <c r="J86">
+        <v>20</v>
+      </c>
+      <c r="K86">
+        <v>50</v>
+      </c>
+      <c r="L86">
+        <v>30</v>
+      </c>
+      <c r="M86">
+        <v>50</v>
+      </c>
+      <c r="N86">
+        <v>50</v>
+      </c>
+      <c r="O86">
+        <v>20</v>
+      </c>
+      <c r="P86">
+        <v>30</v>
+      </c>
+      <c r="Q86">
+        <v>50</v>
+      </c>
+      <c r="R86">
+        <v>20</v>
+      </c>
+      <c r="S86">
+        <v>10</v>
+      </c>
+      <c r="T86">
+        <v>20</v>
+      </c>
+      <c r="U86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <v>30</v>
+      </c>
+      <c r="J87">
+        <v>20</v>
+      </c>
+      <c r="K87">
+        <v>50</v>
+      </c>
+      <c r="L87">
+        <v>30</v>
+      </c>
+      <c r="M87">
+        <v>50</v>
+      </c>
+      <c r="N87">
+        <v>50</v>
+      </c>
+      <c r="O87">
+        <v>20</v>
+      </c>
+      <c r="P87">
+        <v>30</v>
+      </c>
+      <c r="Q87">
+        <v>50</v>
+      </c>
+      <c r="R87">
+        <v>20</v>
+      </c>
+      <c r="S87">
+        <v>10</v>
+      </c>
+      <c r="T87">
+        <v>20</v>
+      </c>
+      <c r="U87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>30</v>
+      </c>
+      <c r="G88">
+        <v>20</v>
+      </c>
+      <c r="H88">
+        <v>20</v>
+      </c>
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="J88">
+        <v>20</v>
+      </c>
+      <c r="K88">
+        <v>50</v>
+      </c>
+      <c r="L88">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>50</v>
+      </c>
+      <c r="N88">
+        <v>50</v>
+      </c>
+      <c r="O88">
+        <v>20</v>
+      </c>
+      <c r="P88">
+        <v>30</v>
+      </c>
+      <c r="Q88">
+        <v>50</v>
+      </c>
+      <c r="R88">
+        <v>20</v>
+      </c>
+      <c r="S88">
+        <v>10</v>
+      </c>
+      <c r="T88">
+        <v>20</v>
+      </c>
+      <c r="U88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>30</v>
+      </c>
+      <c r="J89">
+        <v>20</v>
+      </c>
+      <c r="K89">
+        <v>50</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>50</v>
+      </c>
+      <c r="N89">
+        <v>50</v>
+      </c>
+      <c r="O89">
+        <v>20</v>
+      </c>
+      <c r="P89">
+        <v>30</v>
+      </c>
+      <c r="Q89">
+        <v>50</v>
+      </c>
+      <c r="R89">
+        <v>20</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>20</v>
+      </c>
+      <c r="U89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>30</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90">
+        <v>20</v>
+      </c>
+      <c r="I90">
+        <v>30</v>
+      </c>
+      <c r="J90">
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <v>50</v>
+      </c>
+      <c r="L90">
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <v>50</v>
+      </c>
+      <c r="N90">
+        <v>50</v>
+      </c>
+      <c r="O90">
+        <v>20</v>
+      </c>
+      <c r="P90">
+        <v>30</v>
+      </c>
+      <c r="Q90">
+        <v>50</v>
+      </c>
+      <c r="R90">
+        <v>20</v>
+      </c>
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>20</v>
+      </c>
+      <c r="U90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="G91">
+        <v>20</v>
+      </c>
+      <c r="H91">
+        <v>20</v>
+      </c>
+      <c r="I91">
+        <v>30</v>
+      </c>
+      <c r="J91">
+        <v>20</v>
+      </c>
+      <c r="K91">
+        <v>50</v>
+      </c>
+      <c r="L91">
+        <v>30</v>
+      </c>
+      <c r="M91">
+        <v>50</v>
+      </c>
+      <c r="N91">
+        <v>50</v>
+      </c>
+      <c r="O91">
+        <v>20</v>
+      </c>
+      <c r="P91">
+        <v>30</v>
+      </c>
+      <c r="Q91">
+        <v>50</v>
+      </c>
+      <c r="R91">
+        <v>20</v>
+      </c>
+      <c r="S91">
+        <v>10</v>
+      </c>
+      <c r="T91">
+        <v>20</v>
+      </c>
+      <c r="U91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92">
+        <v>20</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92">
+        <v>30</v>
+      </c>
+      <c r="J92">
+        <v>20</v>
+      </c>
+      <c r="K92">
+        <v>50</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92">
+        <v>50</v>
+      </c>
+      <c r="N92">
+        <v>50</v>
+      </c>
+      <c r="O92">
+        <v>20</v>
+      </c>
+      <c r="P92">
+        <v>30</v>
+      </c>
+      <c r="Q92">
+        <v>50</v>
+      </c>
+      <c r="R92">
+        <v>20</v>
+      </c>
+      <c r="S92">
+        <v>10</v>
+      </c>
+      <c r="T92">
+        <v>20</v>
+      </c>
+      <c r="U92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>30</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>20</v>
+      </c>
+      <c r="I93">
+        <v>30</v>
+      </c>
+      <c r="J93">
+        <v>20</v>
+      </c>
+      <c r="K93">
+        <v>50</v>
+      </c>
+      <c r="L93">
+        <v>30</v>
+      </c>
+      <c r="M93">
+        <v>50</v>
+      </c>
+      <c r="N93">
+        <v>50</v>
+      </c>
+      <c r="O93">
+        <v>20</v>
+      </c>
+      <c r="P93">
+        <v>30</v>
+      </c>
+      <c r="Q93">
+        <v>50</v>
+      </c>
+      <c r="R93">
+        <v>20</v>
+      </c>
+      <c r="S93">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <v>20</v>
+      </c>
+      <c r="U93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>30</v>
+      </c>
+      <c r="J94">
+        <v>20</v>
+      </c>
+      <c r="K94">
+        <v>50</v>
+      </c>
+      <c r="L94">
+        <v>30</v>
+      </c>
+      <c r="M94">
+        <v>50</v>
+      </c>
+      <c r="N94">
+        <v>50</v>
+      </c>
+      <c r="O94">
+        <v>20</v>
+      </c>
+      <c r="P94">
+        <v>30</v>
+      </c>
+      <c r="Q94">
+        <v>50</v>
+      </c>
+      <c r="R94">
+        <v>20</v>
+      </c>
+      <c r="S94">
+        <v>10</v>
+      </c>
+      <c r="T94">
+        <v>20</v>
+      </c>
+      <c r="U94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <v>20</v>
+      </c>
+      <c r="K95">
+        <v>50</v>
+      </c>
+      <c r="L95">
+        <v>30</v>
+      </c>
+      <c r="M95">
+        <v>50</v>
+      </c>
+      <c r="N95">
+        <v>50</v>
+      </c>
+      <c r="O95">
+        <v>20</v>
+      </c>
+      <c r="P95">
+        <v>30</v>
+      </c>
+      <c r="Q95">
+        <v>50</v>
+      </c>
+      <c r="R95">
+        <v>20</v>
+      </c>
+      <c r="S95">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <v>20</v>
+      </c>
+      <c r="U95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>30</v>
+      </c>
+      <c r="G96">
+        <v>20</v>
+      </c>
+      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="I96">
+        <v>30</v>
+      </c>
+      <c r="J96">
+        <v>20</v>
+      </c>
+      <c r="K96">
+        <v>50</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>50</v>
+      </c>
+      <c r="N96">
+        <v>50</v>
+      </c>
+      <c r="O96">
+        <v>20</v>
+      </c>
+      <c r="P96">
+        <v>30</v>
+      </c>
+      <c r="Q96">
+        <v>50</v>
+      </c>
+      <c r="R96">
+        <v>20</v>
+      </c>
+      <c r="S96">
+        <v>10</v>
+      </c>
+      <c r="T96">
+        <v>20</v>
+      </c>
+      <c r="U96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>30</v>
+      </c>
+      <c r="J97">
+        <v>20</v>
+      </c>
+      <c r="K97">
+        <v>50</v>
+      </c>
+      <c r="L97">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>50</v>
+      </c>
+      <c r="N97">
+        <v>50</v>
+      </c>
+      <c r="O97">
+        <v>20</v>
+      </c>
+      <c r="P97">
+        <v>30</v>
+      </c>
+      <c r="Q97">
+        <v>50</v>
+      </c>
+      <c r="R97">
+        <v>20</v>
+      </c>
+      <c r="S97">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <v>20</v>
+      </c>
+      <c r="U97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <v>20</v>
+      </c>
+      <c r="K98">
+        <v>50</v>
+      </c>
+      <c r="L98">
+        <v>30</v>
+      </c>
+      <c r="M98">
+        <v>50</v>
+      </c>
+      <c r="N98">
+        <v>50</v>
+      </c>
+      <c r="O98">
+        <v>20</v>
+      </c>
+      <c r="P98">
+        <v>30</v>
+      </c>
+      <c r="Q98">
+        <v>50</v>
+      </c>
+      <c r="R98">
+        <v>20</v>
+      </c>
+      <c r="S98">
+        <v>10</v>
+      </c>
+      <c r="T98">
+        <v>20</v>
+      </c>
+      <c r="U98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <v>20</v>
+      </c>
+      <c r="K99">
+        <v>50</v>
+      </c>
+      <c r="L99">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <v>50</v>
+      </c>
+      <c r="N99">
+        <v>50</v>
+      </c>
+      <c r="O99">
+        <v>20</v>
+      </c>
+      <c r="P99">
+        <v>30</v>
+      </c>
+      <c r="Q99">
+        <v>50</v>
+      </c>
+      <c r="R99">
+        <v>20</v>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <v>20</v>
+      </c>
+      <c r="U99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>20</v>
+      </c>
+      <c r="K100">
+        <v>50</v>
+      </c>
+      <c r="L100">
+        <v>30</v>
+      </c>
+      <c r="M100">
+        <v>50</v>
+      </c>
+      <c r="N100">
+        <v>50</v>
+      </c>
+      <c r="O100">
+        <v>20</v>
+      </c>
+      <c r="P100">
+        <v>30</v>
+      </c>
+      <c r="Q100">
+        <v>50</v>
+      </c>
+      <c r="R100">
+        <v>20</v>
+      </c>
+      <c r="S100">
+        <v>10</v>
+      </c>
+      <c r="T100">
+        <v>20</v>
+      </c>
+      <c r="U100">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>